--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348F162-8075-4056-BB3F-9B7567D232B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A3DBE-094D-4993-A3E9-BB268AD55BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Counter and Todo on useReducer</t>
+  </si>
+  <si>
+    <t>Basics Object</t>
   </si>
 </sst>
 </file>
@@ -402,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,8 +439,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A3DBE-094D-4993-A3E9-BB268AD55BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771DBBD-61E7-49B3-8109-C2AFB8E71EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Basics Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state update, Batch update, </t>
+  </si>
+  <si>
+    <t>Once function from NamasteDev</t>
   </si>
 </sst>
 </file>
@@ -405,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +451,9 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -516,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,8 +557,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771DBBD-61E7-49B3-8109-C2AFB8E71EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0E8A5-A8B2-4FC4-A95A-60C156CB16AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Once function from NamasteDev</t>
+  </si>
+  <si>
+    <t>Form Largest And Smallest Number from an Array</t>
   </si>
 </sst>
 </file>
@@ -411,18 +414,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.77734375" customWidth="1"/>
-    <col min="3" max="3" width="93.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -444,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -455,62 +458,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45831</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -524,17 +531,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -556,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -565,62 +572,62 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -638,7 +645,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0E8A5-A8B2-4FC4-A95A-60C156CB16AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FE0EA6-A06C-4B8A-B61E-C617DC744102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Form Largest And Smallest Number from an Array</t>
+  </si>
+  <si>
+    <t>Create a custome deep merge function using JS to clone one object into another</t>
+  </si>
+  <si>
+    <t>Build todo App from NamasteDev</t>
+  </si>
+  <si>
+    <t>Build tabs component from NamasteDev</t>
   </si>
 </sst>
 </file>
@@ -414,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +479,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -531,12 +542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
@@ -573,14 +585,20 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3">
+        <v>45831</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FE0EA6-A06C-4B8A-B61E-C617DC744102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C72731-9C1F-4D63-BF99-A9F4E3B60A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -72,13 +72,16 @@
   </si>
   <si>
     <t>Build tabs component from NamasteDev</t>
+  </si>
+  <si>
+    <t>Routing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +97,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,13 +599,15 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C72731-9C1F-4D63-BF99-A9F4E3B60A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA6318-FC30-45C2-9DFA-B6E426421782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
     <sheet name="React" sheetId="2" r:id="rId2"/>
     <sheet name="HTMLCSS" sheetId="3" r:id="rId3"/>
+    <sheet name="Programs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -75,13 +76,19 @@
   </si>
   <si>
     <t>Routing</t>
+  </si>
+  <si>
+    <t>An array of numbers is given which can be integers from say -1000 to +1000. I need to find out maximum product that can be taken out from 3 numbers in that array - maximumProduct([10, 20, 5, 2]) maximumProduct([-10, -10, 5, 2])</t>
+  </si>
+  <si>
+    <t>Create a custom deep merge function using JS to clone one object into another.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +110,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,12 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,18 +454,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="93.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -473,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -484,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -493,59 +507,59 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -563,14 +577,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -592,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -601,7 +615,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -612,59 +626,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -682,8 +696,37 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="191.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA6318-FC30-45C2-9DFA-B6E426421782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B2D3D-9BDA-4551-AFDC-3C2DDB78186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Build todo App from NamasteDev</t>
   </si>
   <si>
-    <t>Build tabs component from NamasteDev</t>
-  </si>
-  <si>
     <t>Routing</t>
   </si>
   <si>
@@ -82,13 +79,39 @@
   </si>
   <si>
     <t>Create a custom deep merge function using JS to clone one object into another.</t>
+  </si>
+  <si>
+    <r>
+      <t>Draggable Component (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chatGpt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) , Build tabs component from NamasteDev</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +139,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -455,17 +486,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="93.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -487,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -498,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -507,59 +538,59 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -574,17 +605,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -606,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -615,70 +646,72 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45832</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -696,7 +729,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,24 +739,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="191.5546875" customWidth="1"/>
+    <col min="1" max="1" width="191.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
   </sheetData>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B2D3D-9BDA-4551-AFDC-3C2DDB78186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6576D-1064-4EE5-ACA6-FC7232599433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Routing</t>
-  </si>
-  <si>
-    <t>An array of numbers is given which can be integers from say -1000 to +1000. I need to find out maximum product that can be taken out from 3 numbers in that array - maximumProduct([10, 20, 5, 2]) maximumProduct([-10, -10, 5, 2])</t>
   </si>
   <si>
     <t>Create a custom deep merge function using JS to clone one object into another.</t>
@@ -105,6 +102,9 @@
       </rPr>
       <t>) , Build tabs component from NamasteDev</t>
     </r>
+  </si>
+  <si>
+    <t>An array of numbers is given which can be integers from -1000 to +1000. find out maximum product from 3 numbers in that array - maximumProduct([10, 20, 5, 2])</t>
   </si>
 </sst>
 </file>
@@ -485,15 +485,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="144.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,16 +539,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3">
+        <v>45832</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -605,7 +609,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +665,11 @@
       <c r="A5" s="3">
         <v>45832</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,25 +743,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="191.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6576D-1064-4EE5-ACA6-FC7232599433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0633C-1D6D-4858-BEB8-CD1477D3B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -106,12 +106,25 @@
   <si>
     <t>An array of numbers is given which can be integers from -1000 to +1000. find out maximum product from 3 numbers in that array - maximumProduct([10, 20, 5, 2])</t>
   </si>
+  <si>
+    <t xml:space="preserve">Simulate an API call using Promise. If the API call fails, you should retry fetching the data up to 3 times with a 5-second delay between each retry. The retries should stop immediately if the API call succeeds.
+ </t>
+  </si>
+  <si>
+    <t>What is Closure? Explain with examples ?</t>
+  </si>
+  <si>
+    <t>Implement memoized function? Below is the structure Implement memoized function ? function memorized(fn){ }  function add(a,b){ return a+b; }  let result = memorized(add);  result(2,3) result(2,3)</t>
+  </si>
+  <si>
+    <t>Implement Bind method</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,12 +146,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -202,7 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,18 +494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="144.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="144.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -518,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -529,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -538,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -547,54 +556,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -612,14 +621,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -641,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -650,7 +659,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -661,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -672,52 +681,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -735,7 +744,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -743,22 +752,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="191.5703125" customWidth="1"/>
+    <col min="1" max="1" width="191.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0633C-1D6D-4858-BEB8-CD1477D3B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4C396-E27B-4FA4-8C74-C75B863E70DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
     <sheet name="React" sheetId="2" r:id="rId2"/>
     <sheet name="HTMLCSS" sheetId="3" r:id="rId3"/>
     <sheet name="Programs" sheetId="4" r:id="rId4"/>
+    <sheet name="NamasteDev React" sheetId="5" r:id="rId5"/>
+    <sheet name="NamasteDev JavaScript" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +120,30 @@
   </si>
   <si>
     <t>Implement Bind method</t>
+  </si>
+  <si>
+    <t>ChipsInput</t>
+  </si>
+  <si>
+    <t>Holy Grail</t>
+  </si>
+  <si>
+    <t>Zigzag</t>
+  </si>
+  <si>
+    <t>ContactForm</t>
+  </si>
+  <si>
+    <t>Mortgage Calculator</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -495,17 +521,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="144.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="144.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -527,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -538,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -547,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -556,54 +582,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -618,17 +644,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -650,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -659,7 +685,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -670,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -681,52 +707,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -744,7 +770,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,39 +780,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="191.5546875" customWidth="1"/>
+    <col min="1" max="1" width="191.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A6FB3-6253-49C0-A80D-E7465405AA01}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4C396-E27B-4FA4-8C74-C75B863E70DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E7BC4-207D-4E28-A7BA-473E41FB28DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -524,14 +524,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="144.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="144.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -582,54 +582,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -643,18 +643,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -707,52 +707,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45833</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -770,7 +772,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,32 +786,32 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="191.5703125" customWidth="1"/>
+    <col min="1" max="1" width="191.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -823,16 +825,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -843,7 +845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -854,28 +856,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -896,12 +898,12 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -912,7 +914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -923,37 +925,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E7BC4-207D-4E28-A7BA-473E41FB28DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE4631-C385-4BCB-87C4-3C4EC6082EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
     <sheet name="React" sheetId="2" r:id="rId2"/>
     <sheet name="HTMLCSS" sheetId="3" r:id="rId3"/>
     <sheet name="Programs" sheetId="4" r:id="rId4"/>
-    <sheet name="NamasteDev React" sheetId="5" r:id="rId5"/>
-    <sheet name="NamasteDev JavaScript" sheetId="6" r:id="rId6"/>
+    <sheet name="NamasteDev JS &amp; React " sheetId="5" r:id="rId5"/>
+    <sheet name="PS_JS_Problems" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,81 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Polyfill for Map/Filter/Reduce</t>
+  </si>
+  <si>
+    <t>Polyfill for Call/Apply/Bind</t>
+  </si>
+  <si>
+    <t>Slice vs Splice</t>
+  </si>
+  <si>
+    <t>Check if a string is a palindrome</t>
+  </si>
+  <si>
+    <t>Count number of vowels in a string</t>
+  </si>
+  <si>
+    <t>Output based Questions on - Closure/Hoisting/</t>
+  </si>
+  <si>
+    <t>Deep Merge in JS</t>
+  </si>
+  <si>
+    <t>Code Execution Order</t>
+  </si>
+  <si>
+    <t>implement flatMap array without using flat function</t>
+  </si>
+  <si>
+    <t>Form Largest Number</t>
+  </si>
+  <si>
+    <t>Questions on Switch and JSON</t>
+  </si>
+  <si>
+    <t>Isomorphic Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map, set get - Question </t>
+  </si>
+  <si>
+    <t>Write a JS program to find count of each character in a string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string, find the shortest substring that contains no repeating characters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an array of strings, group the strings based on their starting character, and return a Map where each key is the starting character and the value is an array of strings that start with that character.</t>
+  </si>
+  <si>
+    <t>find out maximum product that can be taken out from 3 numbers in that array</t>
+  </si>
+  <si>
+    <t>Make own Debounce</t>
+  </si>
+  <si>
+    <t>Polyfill for Promise</t>
+  </si>
+  <si>
+    <t>Fetch API with retry conceopt</t>
+  </si>
+  <si>
+    <t>Problems on Reduce</t>
+  </si>
+  <si>
+    <t>Currying problem</t>
+  </si>
+  <si>
+    <t>Fetch API data concurrently with Limit</t>
   </si>
 </sst>
 </file>
@@ -229,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -238,6 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,14 +600,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="144.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="144.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -553,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -564,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -573,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -582,54 +658,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -643,18 +719,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -676,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -685,7 +761,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -696,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -707,54 +783,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -772,7 +848,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -783,35 +859,35 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="191.5546875" customWidth="1"/>
+    <col min="1" max="1" width="191.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -823,66 +899,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B10" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,73 +1000,131 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A6FB3-6253-49C0-A80D-E7465405AA01}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="188.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE4631-C385-4BCB-87C4-3C4EC6082EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A5CEEC-6A86-417F-9E77-0E69B365C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Fetch API data concurrently with Limit</t>
+  </si>
+  <si>
+    <t>Solved Problem on Reduce from chatGPT</t>
+  </si>
+  <si>
+    <t>Polyfor for Debounce/Throttling</t>
+  </si>
+  <si>
+    <t>Promise Basics</t>
+  </si>
+  <si>
+    <t>Closure</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,34 +671,58 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3">
+        <v>45833</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3">
+        <v>45834</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3">
+        <v>45835</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="3">
+        <v>45836</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="3">
+        <v>45837</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3">
+        <v>45838</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
@@ -719,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A6FB3-6253-49C0-A80D-E7465405AA01}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A5CEEC-6A86-417F-9E77-0E69B365C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86628FCB-F0B6-4554-84E2-A3AE2AACD5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -120,12 +120,6 @@
   </si>
   <si>
     <t>Implement Bind method</t>
-  </si>
-  <si>
-    <t>ChipsInput</t>
-  </si>
-  <si>
-    <t>Holy Grail</t>
   </si>
   <si>
     <t>Zigzag</t>
@@ -612,14 +606,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="144.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="144.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -641,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -652,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -661,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -670,7 +664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
@@ -679,69 +673,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45834</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45835</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45836</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45837</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45838</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -755,18 +749,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -788,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -797,7 +791,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -808,7 +802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -819,54 +813,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -884,7 +878,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -898,32 +892,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="191.5703125" customWidth="1"/>
+    <col min="1" max="1" width="191.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -937,32 +931,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -973,23 +967,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1000,31 +994,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
@@ -1042,124 +1030,124 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="188.140625" customWidth="1"/>
+    <col min="1" max="1" width="188.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86628FCB-F0B6-4554-84E2-A3AE2AACD5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4660F00-624B-4D07-8C23-A3CA1DF4AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -122,12 +122,6 @@
     <t>Implement Bind method</t>
   </si>
   <si>
-    <t>Zigzag</t>
-  </si>
-  <si>
-    <t>ContactForm</t>
-  </si>
-  <si>
     <t>Mortgage Calculator</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Closure</t>
+  </si>
+  <si>
+    <t>Build 3 new Easy Level Components</t>
+  </si>
+  <si>
+    <t>Revision on Call/Apply/Bind/Map/Filter/Reduce/Debounce/Throttling</t>
   </si>
 </sst>
 </file>
@@ -603,17 +603,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="144.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="144.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
@@ -673,69 +673,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45834</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45835</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45836</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45837</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45838</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45839</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -750,17 +754,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -782,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -791,7 +795,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -802,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -813,54 +817,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45838</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45839</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -878,7 +888,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -892,32 +902,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="191.5546875" customWidth="1"/>
+    <col min="1" max="1" width="191.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -932,31 +942,31 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -967,23 +977,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -994,25 +1004,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
@@ -1030,124 +1035,124 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="188.109375" customWidth="1"/>
+    <col min="1" max="1" width="188.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.j.ranjan\Downloads\ARC_COE\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4660F00-624B-4D07-8C23-A3CA1DF4AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9A282-7C5B-44E5-A4BE-6D8C3D54B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
@@ -606,14 +606,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="144.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="144.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
@@ -673,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45834</v>
       </c>
@@ -682,7 +682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45835</v>
       </c>
@@ -691,7 +691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45836</v>
       </c>
@@ -702,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45837</v>
       </c>
@@ -713,7 +713,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45838</v>
       </c>
@@ -722,24 +722,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45839</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -757,14 +757,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45829</v>
       </c>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45830</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45831</v>
       </c>
@@ -806,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45832</v>
       </c>
@@ -817,14 +817,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45833</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45838</v>
       </c>
@@ -833,44 +833,44 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45839</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -888,7 +888,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -902,32 +902,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="191.5703125" customWidth="1"/>
+    <col min="1" max="1" width="191.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -942,20 +942,20 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -966,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -977,12 +977,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -993,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1004,20 +1004,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
@@ -1035,122 +1035,122 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="188.140625" customWidth="1"/>
+    <col min="1" max="1" width="188.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9A282-7C5B-44E5-A4BE-6D8C3D54B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEABC08-B1A2-476F-BE10-518317D851F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
     <sheet name="React" sheetId="2" r:id="rId2"/>
-    <sheet name="HTMLCSS" sheetId="3" r:id="rId3"/>
-    <sheet name="Programs" sheetId="4" r:id="rId4"/>
-    <sheet name="NamasteDev JS &amp; React " sheetId="5" r:id="rId5"/>
-    <sheet name="PS_JS_Problems" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactQuestionsFromLinkedIn" sheetId="7" r:id="rId3"/>
+    <sheet name="JavaScriptQuestionsFromLinkedIn" sheetId="8" r:id="rId4"/>
+    <sheet name="HTMLCSS" sheetId="3" r:id="rId5"/>
+    <sheet name="Programs" sheetId="4" r:id="rId6"/>
+    <sheet name="NamasteDev JS &amp; React " sheetId="5" r:id="rId7"/>
+    <sheet name="PS_JS_Problems" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="221">
   <si>
     <t>Date</t>
   </si>
@@ -226,12 +228,504 @@
   <si>
     <t>Revision on Call/Apply/Bind/Map/Filter/Reduce/Debounce/Throttling</t>
   </si>
+  <si>
+    <t>What is React?</t>
+  </si>
+  <si>
+    <t>What are components in React?</t>
+  </si>
+  <si>
+    <t>What are props in React?</t>
+  </si>
+  <si>
+    <t>What is state in React?</t>
+  </si>
+  <si>
+    <t>Explain the React component lifecycle (for class components).</t>
+  </si>
+  <si>
+    <t>What are React Hooks?</t>
+  </si>
+  <si>
+    <t>How to clean up side effects in useEffect?</t>
+  </si>
+  <si>
+    <t>How to create custom hooks in React?</t>
+  </si>
+  <si>
+    <t>Explain useRef and its use cases.</t>
+  </si>
+  <si>
+    <t>When should you use Context instead of props?</t>
+  </si>
+  <si>
+    <t>How to pass functions using Context API?</t>
+  </si>
+  <si>
+    <t>How to optimize Context to avoid unnecessary re-renders?</t>
+  </si>
+  <si>
+    <t>What is Redux and why is it used?</t>
+  </si>
+  <si>
+    <t>What are the core principles of Redux?</t>
+  </si>
+  <si>
+    <t>What is a reducer in Redux?</t>
+  </si>
+  <si>
+    <t>What is the role of the store in Redux?</t>
+  </si>
+  <si>
+    <t>How do you connect React to Redux using hooks?</t>
+  </si>
+  <si>
+    <t>How to use Redux Toolkit?</t>
+  </si>
+  <si>
+    <t>What is React Fiber architecture?</t>
+  </si>
+  <si>
+    <t>What is reconciliation in React?</t>
+  </si>
+  <si>
+    <t>What is the difference between lazy loading and code splitting?</t>
+  </si>
+  <si>
+    <t>What are portals in React and when to use them?</t>
+  </si>
+  <si>
+    <t>What is prop drilling and how do you avoid it?</t>
+  </si>
+  <si>
+    <t>What is JSX and how does it work?</t>
+  </si>
+  <si>
+    <t>What is the difference between useTransition and useDeferredValue in React?</t>
+  </si>
+  <si>
+    <t>How do you mock API calls using Jest?</t>
+  </si>
+  <si>
+    <t>What is the Virtual DOM?</t>
+  </si>
+  <si>
+    <t>What is the difference between functional and class components?</t>
+  </si>
+  <si>
+    <t>Difference between controlled and uncontrolled components?</t>
+  </si>
+  <si>
+    <t>What is the role of keys in lists? Key vs index as key — which to use and why?</t>
+  </si>
+  <si>
+    <t>How does React handle forms?</t>
+  </si>
+  <si>
+    <t>React Fundamentals</t>
+  </si>
+  <si>
+    <t>React Lifecycle &amp; Rendering</t>
+  </si>
+  <si>
+    <t>Which lifecycle hooks in class components are replaced with useEffect in functional components?</t>
+  </si>
+  <si>
+    <t>How to call a method when a component is rendered for the first time?</t>
+  </si>
+  <si>
+    <t>How to call a method on every re-render of a component?</t>
+  </si>
+  <si>
+    <t>How to call a method immediately after state is updated or component is re-rendered?</t>
+  </si>
+  <si>
+    <t>How to force a component to re-render without using useState?</t>
+  </si>
+  <si>
+    <t>How to re-render a component on value change?</t>
+  </si>
+  <si>
+    <t>Explain React Fragments vs div wrappers.</t>
+  </si>
+  <si>
+    <t>React Hooks Overview</t>
+  </si>
+  <si>
+    <t>Explain useState, useEffect, and useContext.</t>
+  </si>
+  <si>
+    <t>Explain the dependency array in useEffect.</t>
+  </si>
+  <si>
+    <t>Difference between useState and useRef?</t>
+  </si>
+  <si>
+    <t>Explain useCallback and how it prevents unnecessary renders.</t>
+  </si>
+  <si>
+    <t>Explain useMemo and when to use it.</t>
+  </si>
+  <si>
+    <t>Difference between useEffect and useLayoutEffect?</t>
+  </si>
+  <si>
+    <t>What is useReducer and how does it work?</t>
+  </si>
+  <si>
+    <t>What is the difference between useCallback, useMemo, and React.memo?</t>
+  </si>
+  <si>
+    <t>How to share data between components using Context API and Redux?</t>
+  </si>
+  <si>
+    <t>Create a counter using useState.</t>
+  </si>
+  <si>
+    <t>Create a counter using useReducer.</t>
+  </si>
+  <si>
+    <t>Context &amp; Prop Management</t>
+  </si>
+  <si>
+    <t>What is the Context API in React?</t>
+  </si>
+  <si>
+    <t>How to implement a theme switcher using Context API?</t>
+  </si>
+  <si>
+    <t>Create a custom hook using Context API to manage shared state.</t>
+  </si>
+  <si>
+    <t>Redux &amp; State Management</t>
+  </si>
+  <si>
+    <t>What are actions and action creators?</t>
+  </si>
+  <si>
+    <t>What is the role of combineReducers() in Redux?</t>
+  </si>
+  <si>
+    <t>What is middleware in Redux and how does it work?</t>
+  </si>
+  <si>
+    <t>Compare Redux Thunk vs Redux Saga.</t>
+  </si>
+  <si>
+    <t>Context API vs Redux — when to use what?</t>
+  </si>
+  <si>
+    <t>What are some alternative state management libraries (Zustand, MobX)?</t>
+  </si>
+  <si>
+    <t>How do you manage environment-specific configurations in a React project?</t>
+  </si>
+  <si>
+    <t>Code Splitting, Lazy Loading, Suspense</t>
+  </si>
+  <si>
+    <t>How does React.lazy() and Suspense work?</t>
+  </si>
+  <si>
+    <t>How do you implement lazy loading in a React app?</t>
+  </si>
+  <si>
+    <t>What is Concurrent Mode in React?</t>
+  </si>
+  <si>
+    <t>What is Server-Side Rendering (SSR), Client-Side Rendering (CSR), and Incremental Static Regeneration (ISR)?</t>
+  </si>
+  <si>
+    <t>What is the difference between SSR and SSG in Next.js?</t>
+  </si>
+  <si>
+    <t>Explain how to fetch data efficiently in a Next.js app.</t>
+  </si>
+  <si>
+    <t>How do you implement pagination in React?</t>
+  </si>
+  <si>
+    <t>How do you render a large list efficiently in React?</t>
+  </si>
+  <si>
+    <t>Advanced Concepts</t>
+  </si>
+  <si>
+    <t>What are error boundaries in React?</t>
+  </si>
+  <si>
+    <t>Create an error boundary component.</t>
+  </si>
+  <si>
+    <t>Create a popup using portals.</t>
+  </si>
+  <si>
+    <t>What is a pure component in React?</t>
+  </si>
+  <si>
+    <t>What is a Higher-Order Component (HOC)? Create a HOC to log props.</t>
+  </si>
+  <si>
+    <t>How do you safeguard your application (React Security)?</t>
+  </si>
+  <si>
+    <t>What security measures should be taken while designing APIs?</t>
+  </si>
+  <si>
+    <t>What is API throttling?</t>
+  </si>
+  <si>
+    <t>How to cancel an API call using AbortController?</t>
+  </si>
+  <si>
+    <t>What is debouncing in React? How to implement debounce in filtering/search?</t>
+  </si>
+  <si>
+    <t>How would you implement autosave in a form?</t>
+  </si>
+  <si>
+    <t>How do you handle API failure alerts to backend teams?</t>
+  </si>
+  <si>
+    <t>How to handle API test cases in a React app?</t>
+  </si>
+  <si>
+    <t>Create a component to upload a file.</t>
+  </si>
+  <si>
+    <t>Practical UI Challenges</t>
+  </si>
+  <si>
+    <t>How to bind an array/array of objects to dropdown?</t>
+  </si>
+  <si>
+    <t>Display dropdown value in another textbox.</t>
+  </si>
+  <si>
+    <t>Bind array to radio buttons; show selected value elsewhere.</t>
+  </si>
+  <si>
+    <t>Display data entered by user in another textbox.</t>
+  </si>
+  <si>
+    <t>Show/hide data based on a condition.</t>
+  </si>
+  <si>
+    <t>How to loop through an array/array of objects in React?</t>
+  </si>
+  <si>
+    <t>Conditionally render text or elements in React.</t>
+  </si>
+  <si>
+    <t>How to change styles based on a condition?</t>
+  </si>
+  <si>
+    <t>Change focus/enable/disable child input from parent.</t>
+  </si>
+  <si>
+    <t>Display character count remaining in a textarea using useRef.</t>
+  </si>
+  <si>
+    <t>Given two dropdowns, load options in one based on other (e.g., states by country).</t>
+  </si>
+  <si>
+    <t>Testing, Tools, Performance</t>
+  </si>
+  <si>
+    <t>What are unit testing tools used in React? (Jest, React Testing Library)</t>
+  </si>
+  <si>
+    <t>What tool can help enforce code standards in React (e.g., ESLint)?</t>
+  </si>
+  <si>
+    <t>How do you perform performance optimization in large apps?</t>
+  </si>
+  <si>
+    <t>Provide examples of optimization using useMemo and useCallback.</t>
+  </si>
+  <si>
+    <t>How do you display dynamic HTML data safely in React?</t>
+  </si>
+  <si>
+    <t>What is a pure function vs first-class function?</t>
+  </si>
+  <si>
+    <t>How does React handle caching or memoization?</t>
+  </si>
+  <si>
+    <t>How do you handle localization and globalization in frontend?</t>
+  </si>
+  <si>
+    <t>How do you handle accessibility in React apps?</t>
+  </si>
+  <si>
+    <t>How does the deployment and build process work? (Vite, Webpack, CRA)</t>
+  </si>
+  <si>
+    <t>What cloud platforms have you used for deployment?</t>
+  </si>
+  <si>
+    <t>What’s the future of React (React Server Components, RSC)?</t>
+  </si>
+  <si>
+    <t>Difference between React 17 and React 18.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Routing &amp; Navigation</t>
+  </si>
+  <si>
+    <t>What is React Router, and how does it work?</t>
+  </si>
+  <si>
+    <t>Difference between &lt;BrowserRouter&gt; and &lt;HashRouter&gt;.</t>
+  </si>
+  <si>
+    <t>How do you implement dynamic routing and route parameters?</t>
+  </si>
+  <si>
+    <t>What are navigation guards and protected routes?</t>
+  </si>
+  <si>
+    <t>How to implement nested routes and route-based code splitting?</t>
+  </si>
+  <si>
+    <t>How do you programmatically navigate (e.g., after form submission)?</t>
+  </si>
+  <si>
+    <t>Forms &amp; Validation</t>
+  </si>
+  <si>
+    <t>How do you validate forms in React, both controlled and uncontrolled?</t>
+  </si>
+  <si>
+    <t>Compare form libraries: Formik vs React Hook Form vs Redux Form.</t>
+  </si>
+  <si>
+    <t>How to handle async validation (e.g., uniqueness checks)?</t>
+  </si>
+  <si>
+    <t>Styling &amp; Theming</t>
+  </si>
+  <si>
+    <t>What are the different ways to style React components (CSS modules, styled-components, Emotion)?</t>
+  </si>
+  <si>
+    <t>How to implement theming using CSS variables or libraries?</t>
+  </si>
+  <si>
+    <t>How to handle responsive styling in React?</t>
+  </si>
+  <si>
+    <t>Internationalization (i18n)</t>
+  </si>
+  <si>
+    <t>How do you implement internationalization in a React app?</t>
+  </si>
+  <si>
+    <t>Compare popular i18n libraries: react-i18next, react-intl.</t>
+  </si>
+  <si>
+    <t>How do you manage locale switching and date/time formatting?</t>
+  </si>
+  <si>
+    <t>Performance Optimization</t>
+  </si>
+  <si>
+    <t>What is code splitting and how do you optimize bundle size?</t>
+  </si>
+  <si>
+    <t>How to use React Profiler to identify performance bottlenecks?</t>
+  </si>
+  <si>
+    <t>When and how do you use React.lazy, Suspense, and React.memo?</t>
+  </si>
+  <si>
+    <t>What’s the benefit of virtualization with tools like react-window or react-virtualized?</t>
+  </si>
+  <si>
+    <t>Accessibility (a11y)</t>
+  </si>
+  <si>
+    <t>What are common accessibility best practices in React (e.g., ARIA roles, keyboard navigation)?</t>
+  </si>
+  <si>
+    <t>How to implement accessible modals, focus management, and form controls?</t>
+  </si>
+  <si>
+    <t>How do you test accessibility in React apps?</t>
+  </si>
+  <si>
+    <t>Testing &amp; Quality Assurance</t>
+  </si>
+  <si>
+    <t>What is end-to-end (E2E) testing and how do you implement it (Cypress, Playwright)?</t>
+  </si>
+  <si>
+    <t>How do you write snapshot, unit, and integration tests in React?</t>
+  </si>
+  <si>
+    <t>What's continuous integration (CI) and code coverage tooling?</t>
+  </si>
+  <si>
+    <t>CI/CD &amp; DevOps</t>
+  </si>
+  <si>
+    <t>How do you utilize CI/CD pipelines for React deployments?</t>
+  </si>
+  <si>
+    <t>What’s the difference between Docker-based builds vs Serverless deployments?</t>
+  </si>
+  <si>
+    <t>How do you use feature flags and canary releases?</t>
+  </si>
+  <si>
+    <t>GraphQL &amp; API Integration</t>
+  </si>
+  <si>
+    <t>What is GraphQL and how do you query React apps?</t>
+  </si>
+  <si>
+    <t>Compare GraphQL clients: Apollo Client vs Relay vs URQL.</t>
+  </si>
+  <si>
+    <t>How do you handle caching, pagination, and optimistic updates?</t>
+  </si>
+  <si>
+    <t>Mobile &amp; Cross-Platform</t>
+  </si>
+  <si>
+    <t>What’s React Native and how does it differ from React for web?</t>
+  </si>
+  <si>
+    <t>How to share logic between React and React Native apps?</t>
+  </si>
+  <si>
+    <t>How do you handle native modules and styling differences?</t>
+  </si>
+  <si>
+    <t>Type Safety &amp; Modern JavaScript</t>
+  </si>
+  <si>
+    <t>How do you integrate TypeScript in React (interfaces, enums, generics, advanced types)?</t>
+  </si>
+  <si>
+    <t>What’s the difference between interface and type in TS?</t>
+  </si>
+  <si>
+    <t>How do you manage JavaScript module loading (ESM vs CommonJS vs dynamic imports)?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +752,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -320,6 +828,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +1267,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,6 +1394,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB546054-63AA-48AC-8E5D-F31A8DE2377B}">
+  <dimension ref="A1:E143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="85.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="86.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003DEBA3-6E9D-4476-9862-C91A4438FDA0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D987D9C7-0672-49AF-A076-CA7287C74296}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -894,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -937,11 +2758,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +2848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A6FB3-6253-49C0-A80D-E7465405AA01}">
   <dimension ref="A1:A23"/>
   <sheetViews>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEABC08-B1A2-476F-BE10-518317D851F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6907BCEA-4573-4748-8313-A903F9648F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1542,7 @@
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="7"/>
@@ -1551,7 +1551,7 @@
       <c r="A15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="7"/>
@@ -2684,6 +2684,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6907BCEA-4573-4748-8313-A903F9648F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C463A-8C58-49F0-BD25-15BE7E6CE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
-    <sheet name="React" sheetId="2" r:id="rId2"/>
-    <sheet name="ReactQuestionsFromLinkedIn" sheetId="7" r:id="rId3"/>
-    <sheet name="JavaScriptQuestionsFromLinkedIn" sheetId="8" r:id="rId4"/>
-    <sheet name="HTMLCSS" sheetId="3" r:id="rId5"/>
-    <sheet name="Programs" sheetId="4" r:id="rId6"/>
-    <sheet name="NamasteDev JS &amp; React " sheetId="5" r:id="rId7"/>
-    <sheet name="PS_JS_Problems" sheetId="6" r:id="rId8"/>
+    <sheet name="QuestionsLists" sheetId="5" r:id="rId1"/>
+    <sheet name="ReactQuestionsFromLinkedIn" sheetId="7" r:id="rId2"/>
+    <sheet name="PS_JS_Problems" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,100 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="221">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Theoritical Topic</t>
-  </si>
-  <si>
-    <t>JavaScript Challenges</t>
-  </si>
-  <si>
-    <t>Difference between thencatch and async/await</t>
-  </si>
-  <si>
-    <t>Sort an array that contains both characters and numbers without using the sort() method</t>
-  </si>
-  <si>
-    <t>useReducer</t>
-  </si>
-  <si>
-    <t>Machine Coding Round</t>
-  </si>
-  <si>
-    <t>Counter and Todo on useReducer</t>
-  </si>
-  <si>
-    <t>Basics Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state update, Batch update, </t>
-  </si>
-  <si>
-    <t>Once function from NamasteDev</t>
-  </si>
-  <si>
-    <t>Form Largest And Smallest Number from an Array</t>
-  </si>
-  <si>
-    <t>Create a custome deep merge function using JS to clone one object into another</t>
-  </si>
-  <si>
-    <t>Build todo App from NamasteDev</t>
-  </si>
-  <si>
-    <t>Routing</t>
-  </si>
-  <si>
-    <t>Create a custom deep merge function using JS to clone one object into another.</t>
-  </si>
-  <si>
-    <r>
-      <t>Draggable Component (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chatGpt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) , Build tabs component from NamasteDev</t>
-    </r>
-  </si>
-  <si>
-    <t>An array of numbers is given which can be integers from -1000 to +1000. find out maximum product from 3 numbers in that array - maximumProduct([10, 20, 5, 2])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulate an API call using Promise. If the API call fails, you should retry fetching the data up to 3 times with a 5-second delay between each retry. The retries should stop immediately if the API call succeeds.
- </t>
-  </si>
-  <si>
-    <t>What is Closure? Explain with examples ?</t>
-  </si>
-  <si>
-    <t>Implement memoized function? Below is the structure Implement memoized function ? function memorized(fn){ }  function add(a,b){ return a+b; }  let result = memorized(add);  result(2,3) result(2,3)</t>
-  </si>
-  <si>
-    <t>Implement Bind method</t>
-  </si>
-  <si>
-    <t>Mortgage Calculator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="207">
   <si>
     <t>Easy</t>
   </si>
@@ -211,24 +113,6 @@
     <t>Fetch API data concurrently with Limit</t>
   </si>
   <si>
-    <t>Solved Problem on Reduce from chatGPT</t>
-  </si>
-  <si>
-    <t>Polyfor for Debounce/Throttling</t>
-  </si>
-  <si>
-    <t>Promise Basics</t>
-  </si>
-  <si>
-    <t>Closure</t>
-  </si>
-  <si>
-    <t>Build 3 new Easy Level Components</t>
-  </si>
-  <si>
-    <t>Revision on Call/Apply/Bind/Map/Filter/Reduce/Debounce/Throttling</t>
-  </si>
-  <si>
     <t>What is React?</t>
   </si>
   <si>
@@ -719,6 +603,51 @@
   </si>
   <si>
     <t>How do you manage JavaScript module loading (ESM vs CommonJS vs dynamic imports)?</t>
+  </si>
+  <si>
+    <t>Total (49)</t>
+  </si>
+  <si>
+    <t>Completed(24)</t>
+  </si>
+  <si>
+    <t>Pending(25)</t>
+  </si>
+  <si>
+    <t>Total (57)</t>
+  </si>
+  <si>
+    <t>Completed(18)</t>
+  </si>
+  <si>
+    <t>Pending(39)</t>
+  </si>
+  <si>
+    <t>NamasteDev Status</t>
+  </si>
+  <si>
+    <t>NeoG Status</t>
+  </si>
+  <si>
+    <t>Total (86)</t>
+  </si>
+  <si>
+    <t>Practice Set</t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t>Redux</t>
+  </si>
+  <si>
+    <t>11 set</t>
+  </si>
+  <si>
+    <t>12 set</t>
+  </si>
+  <si>
+    <t>Set(34)</t>
   </si>
 </sst>
 </file>
@@ -737,13 +666,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -770,6 +692,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -786,7 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,21 +748,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,293 +1040,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="144.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45829</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45830</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45831</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45832</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45833</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45834</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45835</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>45836</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>45837</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>45838</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>45839</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D54DEC-8512-4D1A-A375-36C3191319A8}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
-    <col min="3" max="3" width="89" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45829</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45830</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45831</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45832</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45833</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45838</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45839</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB546054-63AA-48AC-8E5D-F31A8DE2377B}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,1275 +1229,1275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>172</v>
+      <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2688,173 +2506,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003DEBA3-6E9D-4476-9862-C91A4438FDA0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D987D9C7-0672-49AF-A076-CA7287C74296}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17CAF2-A47B-43EC-BB82-0B34F3FFBF24}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="191.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A6FB3-6253-49C0-A80D-E7465405AA01}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2864,117 +2521,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C463A-8C58-49F0-BD25-15BE7E6CE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2316751C-C0C5-45C9-866D-03D42B231AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionsLists" sheetId="5" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB546054-63AA-48AC-8E5D-F31A8DE2377B}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1379,7 @@
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="4"/>
@@ -1389,7 +1389,7 @@
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="4"/>
@@ -1399,7 +1399,7 @@
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="4"/>
@@ -1409,7 +1409,7 @@
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="4"/>

--- a/WorkTracker.xlsx
+++ b/WorkTracker.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2316751C-C0C5-45C9-866D-03D42B231AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A2ECB3-BF1E-4DBD-91F1-76183D4DC694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionsLists" sheetId="5" r:id="rId1"/>
     <sheet name="ReactQuestionsFromLinkedIn" sheetId="7" r:id="rId2"/>
     <sheet name="PS_JS_Problems" sheetId="6" r:id="rId3"/>
+    <sheet name="MY_JS_SHEET" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1043,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A5BAE-7E70-4C71-BF83-1CB66BD5B5FD}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB546054-63AA-48AC-8E5D-F31A8DE2377B}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2510,9 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A6FB3-6253-49C0-A80D-E7465405AA01}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2637,4 +2636,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0191934-37BD-4237-B86A-863BAB4B869D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>